--- a/供应链管理期末作业4.xlsx
+++ b/供应链管理期末作业4.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lixiang/Documents/GitHub/cplex_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95599336-B028-5247-A649-BA0486765B70}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C2F25B-6559-8242-B6CF-E01A7C936B8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{CBD728BC-5636-9645-8BD1-BBEE6B004427}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>年需求量D</t>
   </si>
@@ -76,17 +76,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,7 +113,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -437,18 +430,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B824F4-F8F1-7941-9B01-55674B253778}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E24"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -466,7 +459,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2">
@@ -484,7 +477,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -504,7 +497,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -527,7 +520,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -550,7 +543,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -573,7 +566,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -596,7 +589,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -619,7 +612,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -642,7 +635,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -665,7 +658,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>11</v>
@@ -682,7 +675,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -694,7 +687,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -706,7 +699,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -724,7 +717,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2">
@@ -742,7 +735,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>0</v>
@@ -762,19 +755,22 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="2">
-        <v>9.8000000000000007</v>
+        <f>SQRT((C16+D16+E16)*D15*E15/2/7000)</f>
+        <v>9.7541200086351783</v>
       </c>
       <c r="D17" s="2">
-        <v>9.8000000000000007</v>
+        <f>C17</f>
+        <v>9.7541200086351783</v>
       </c>
       <c r="E17" s="2">
-        <v>9.8000000000000007</v>
+        <f>D17</f>
+        <v>9.7541200086351783</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -782,22 +778,22 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="2">
         <f>C16/C17</f>
-        <v>1224.4897959183672</v>
+        <v>1230.2493704584911</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" ref="D18:E18" si="1">D16/D17</f>
-        <v>122.44897959183673</v>
+        <v>123.02493704584911</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>12.244897959183673</v>
+        <v>12.302493704584911</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -805,22 +801,22 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="2">
         <f>C18/2</f>
-        <v>612.24489795918362</v>
+        <v>615.12468522924553</v>
       </c>
       <c r="D19" s="2">
         <f>D18/2</f>
-        <v>61.224489795918366</v>
+        <v>61.512468522924557</v>
       </c>
       <c r="E19" s="2">
         <f>E18/2</f>
-        <v>6.1224489795918364</v>
+        <v>6.1512468522924557</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -828,22 +824,22 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="2">
         <f>D15*E15*C19</f>
-        <v>61224.489795918358</v>
+        <v>61512.468522924552</v>
       </c>
       <c r="D20" s="2">
         <f>E15*D15*D19</f>
-        <v>6122.4489795918362</v>
+        <v>6151.2468522924555</v>
       </c>
       <c r="E20" s="2">
         <f>D15*E15*E19</f>
-        <v>612.24489795918362</v>
+        <v>615.12468522924553</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -851,22 +847,22 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2">
-        <f>C17*C15</f>
-        <v>49000</v>
+        <f>C17*7000/3</f>
+        <v>22759.613353482084</v>
       </c>
       <c r="D21" s="2">
-        <f>D17*C15</f>
-        <v>49000</v>
+        <f t="shared" ref="D21:E21" si="2">D17*7000/3</f>
+        <v>22759.613353482084</v>
       </c>
       <c r="E21" s="2">
-        <f>E17*C15</f>
-        <v>49000</v>
+        <f t="shared" si="2"/>
+        <v>22759.613353482084</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -874,22 +870,22 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="2">
         <f>C18/2/C16*52</f>
-        <v>2.6530612244897958</v>
+        <v>2.6655403026600637</v>
       </c>
       <c r="D22" s="2">
         <f>D18/2/D16*52</f>
-        <v>2.6530612244897958</v>
+        <v>2.6655403026600641</v>
       </c>
       <c r="E22" s="2">
         <f>E18/2/E16*52</f>
-        <v>2.6530612244897958</v>
+        <v>2.6655403026600641</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -897,22 +893,22 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="2">
         <f>C21+C20</f>
-        <v>110224.48979591836</v>
+        <v>84272.081876406635</v>
       </c>
       <c r="D23" s="2">
         <f>D21+D20</f>
-        <v>55122.448979591834</v>
+        <v>28910.860205774537</v>
       </c>
       <c r="E23" s="2">
         <f>E21+E20</f>
-        <v>49612.244897959186</v>
+        <v>23374.73803871133</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -920,14 +916,14 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="2">
         <f>C23+D23+E23</f>
-        <v>214959.18367346935</v>
+        <v>136557.6801208925</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -937,7 +933,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -949,90 +945,213 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="C27" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D27" s="2">
+        <v>500</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.2</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>12000</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1200</v>
+      </c>
+      <c r="E28" s="2">
+        <v>120</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2">
+        <v>11.47</v>
+      </c>
+      <c r="D29" s="2">
+        <v>5.74</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.29</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2">
+        <f>C28/C29</f>
+        <v>1046.2074978204009</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" ref="D30:E30" si="3">D28/D29</f>
+        <v>209.05923344947735</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="3"/>
+        <v>52.401746724890828</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2">
+        <f>C30/2</f>
+        <v>523.10374891020047</v>
+      </c>
+      <c r="D31" s="2">
+        <f>D30/2</f>
+        <v>104.52961672473867</v>
+      </c>
+      <c r="E31" s="2">
+        <f>E30/2</f>
+        <v>26.200873362445414</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2">
+        <f>D27*E27*C31</f>
+        <v>52310.374891020045</v>
+      </c>
+      <c r="D32" s="2">
+        <f>E27*D27*D31</f>
+        <v>10452.961672473868</v>
+      </c>
+      <c r="E32" s="2">
+        <f>D27*E27*E31</f>
+        <v>2620.0873362445413</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2">
+        <f>C29*7000/3</f>
+        <v>26763.333333333332</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" ref="D33:E33" si="4">D29*7000/3</f>
+        <v>13393.333333333334</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="4"/>
+        <v>5343.333333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2">
+        <f>C30/2/C28*52</f>
+        <v>2.266782911944202</v>
+      </c>
+      <c r="D34" s="2">
+        <f>D30/2/D28*52</f>
+        <v>4.5296167247386752</v>
+      </c>
+      <c r="E34" s="2">
+        <f>E30/2/E28*52</f>
+        <v>11.353711790393012</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2">
+        <f>C33+C32</f>
+        <v>79073.708224353381</v>
+      </c>
+      <c r="D35" s="2">
+        <f>D33+D32</f>
+        <v>23846.295005807202</v>
+      </c>
+      <c r="E35" s="2">
+        <f>E33+E32</f>
+        <v>7963.4206695778739</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="2">
+        <f>C35+D35+E35</f>
+        <v>110883.42389973845</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
